--- a/Testing_Data/BPArestingLength_maxStrain.xlsx
+++ b/Testing_Data/BPArestingLength_maxStrain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9607F3-7097-48FC-9619-3818F25A2AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6E656-A619-483B-81D8-92C9CBA12E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2454EBEA-0841-4563-86B1-F8FDD5C06141}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{2454EBEA-0841-4563-86B1-F8FDD5C06141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Muscle size</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Max contracted length</t>
   </si>
   <si>
-    <t>430?</t>
-  </si>
-  <si>
     <t>Flexor</t>
   </si>
   <si>
@@ -68,21 +65,6 @@
   </si>
   <si>
     <t>Order by resting length, ascending</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10mm </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>ø</t>
-    </r>
   </si>
   <si>
     <t>Resting Length</t>
@@ -119,9 +101,6 @@
       </rPr>
       <t>ø</t>
     </r>
-  </si>
-  <si>
-    <t>430*</t>
   </si>
   <si>
     <r>
@@ -177,6 +156,41 @@
   </si>
   <si>
     <t>Graph 10mm strain</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10mm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>ø</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Ben)</t>
+    </r>
+  </si>
+  <si>
+    <t>R.L Mean</t>
+  </si>
+  <si>
+    <t>Strain mean</t>
+  </si>
+  <si>
+    <t>Strain Std.</t>
   </si>
 </sst>
 </file>
@@ -512,8 +526,275 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ben</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15662650602409633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16923076923076918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16849015317286653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17083333333333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1793814432989691</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15384615384615385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-452B-42D8-848E-D68AE50913F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Alex</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>153.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>280.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-452B-42D8-848E-D68AE50913F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lawrence</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$50:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15068493150684936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1400778210116731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16014234875444844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14590747330960852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-452B-42D8-848E-D68AE50913F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>Ben</c:v>
           </c:tx>
@@ -602,13 +883,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D954-455D-BA3E-6DBE9D3BED3E}"/>
+              <c16:uniqueId val="{00000003-452B-42D8-848E-D68AE50913F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>Alex</c:v>
           </c:tx>
@@ -691,13 +972,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D954-455D-BA3E-6DBE9D3BED3E}"/>
+              <c16:uniqueId val="{00000005-452B-42D8-848E-D68AE50913F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>Lawrence</c:v>
           </c:tx>
@@ -774,7 +1055,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D954-455D-BA3E-6DBE9D3BED3E}"/>
+              <c16:uniqueId val="{00000007-452B-42D8-848E-D68AE50913F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1079,14 +1360,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1681,16 +1956,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>122871</xdr:rowOff>
+      <xdr:rowOff>107631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>78104</xdr:rowOff>
+      <xdr:rowOff>62864</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2017,19 +2292,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F667B4A-AB9B-4293-BE5B-E6516B3E686C}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="17.47265625" style="3" customWidth="1"/>
-    <col min="2" max="11" width="8.83984375" style="1"/>
+    <col min="2" max="10" width="8.83984375" style="1"/>
+    <col min="11" max="11" width="11.9453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
@@ -2060,17 +2336,17 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="4">
+        <v>417.75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="e">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
         <f>1-B5/B4</f>
-        <v>#VALUE!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
@@ -2086,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.6">
@@ -2107,7 +2383,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <f>1-B11/B10</f>
@@ -2130,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.6">
@@ -2157,7 +2433,7 @@
     </row>
     <row r="18" spans="1:13" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5">
         <f>1-B17/B16</f>
@@ -2170,7 +2446,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.6">
@@ -2189,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.6">
@@ -2240,14 +2516,14 @@
     </row>
     <row r="25" spans="1:13" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5">
         <f>1-B24/B23</f>
         <v>0.16849015317286653</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:M25" si="0">1-C24/C23</f>
+        <f t="shared" ref="C25:G25" si="0">1-C24/C23</f>
         <v>0.17083333333333328</v>
       </c>
       <c r="D25" s="6">
@@ -2275,17 +2551,17 @@
     </row>
     <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1">
         <v>415</v>
@@ -2308,10 +2584,17 @@
       <c r="H31" s="1">
         <v>520</v>
       </c>
+      <c r="J31" s="1">
+        <f>SUM(B31:H31)/7</f>
+        <v>471.14285714285717</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1">
         <v>350</v>
@@ -2334,17 +2617,24 @@
       <c r="H32" s="1">
         <v>440</v>
       </c>
+      <c r="J32" s="1">
+        <f>SUM(B33:H33)/7</f>
+        <v>0.16643928936755067</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <f>1-B32/B31</f>
         <v>0.15662650602409633</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="C33:K33" si="1">1-C32/C31</f>
+        <f t="shared" ref="C33:H33" si="1">1-C32/C31</f>
         <v>0.16923076923076918</v>
       </c>
       <c r="D33" s="1">
@@ -2367,26 +2657,33 @@
         <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
+      <c r="J33" s="1">
+        <f>_xlfn.STDEV.S(B33:H33)</f>
+        <v>8.6961184116292525E-3</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>423</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1">
         <v>322</v>
@@ -2394,7 +2691,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <f>1-B37/B36</f>
@@ -2403,12 +2700,12 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1">
         <v>557</v>
@@ -2416,29 +2713,36 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>417.75</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="e">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
         <f>1-B42/B41</f>
-        <v>#VALUE!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="J45" s="1">
+        <f>SUM(B46:G46)/6</f>
+        <v>212.31666666666669</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1">
         <v>153.1</v>
@@ -2458,10 +2762,17 @@
       <c r="G46" s="1">
         <v>280.89999999999998</v>
       </c>
+      <c r="J46" s="1">
+        <f>SUM(B47:G47)/6</f>
+        <v>0.16439999999999999</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <v>0.14910000000000001</v>
@@ -2481,15 +2792,22 @@
       <c r="G47" s="1">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="J47" s="1">
+        <f>_xlfn.STDEV.S(B47:G47)</f>
+        <v>8.836515150216169E-3</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>120</v>
@@ -2506,10 +2824,17 @@
       <c r="F50" s="1">
         <v>281</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="J50" s="1">
+        <f>SUM(B50:F50)/5</f>
+        <v>231.6</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A51" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>100</v>
@@ -2526,17 +2851,24 @@
       <c r="F51" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="J51" s="1">
+        <f>SUM(B52:F52)/5</f>
+        <v>0.15269584824984922</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A52" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <f>1-B51/B50</f>
         <v>0.16666666666666663</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" ref="C52:G52" si="2">1-C51/C50</f>
+        <f t="shared" ref="C52:F52" si="2">1-C51/C50</f>
         <v>0.15068493150684936</v>
       </c>
       <c r="D52" s="1">
@@ -2550,6 +2882,13 @@
       <c r="F52" s="1">
         <f t="shared" si="2"/>
         <v>0.14590747330960852</v>
+      </c>
+      <c r="J52" s="1">
+        <f>_xlfn.STDEV.S(B52:F52)</f>
+        <v>1.0723508857419298E-2</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/BPArestingLength_maxStrain.xlsx
+++ b/Testing_Data/BPArestingLength_maxStrain.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6E656-A619-483B-81D8-92C9CBA12E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B0A1E-56B8-4067-8C7B-7E8D201DAC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{2454EBEA-0841-4563-86B1-F8FDD5C06141}"/>
+    <workbookView xWindow="-25395" yWindow="1545" windowWidth="13455" windowHeight="11385" xr2:uid="{2454EBEA-0841-4563-86B1-F8FDD5C06141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -237,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,15 +310,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -334,15 +323,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -383,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -415,19 +395,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -555,60 +529,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:f>Sheet1!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>415</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>457</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>520</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$H$33</c:f>
+              <c:f>Sheet1!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15662650602409633</c:v>
+                  <c:v>0.15942028985507251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16923076923076918</c:v>
+                  <c:v>0.17030567685589515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16849015317286653</c:v>
+                  <c:v>0.16564417177914115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17083333333333328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1793814432989691</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.15830115830115832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,60 +778,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$H$31</c:f>
+              <c:f>Sheet1!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>415</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455</c:v>
+                  <c:v>458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>457</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>520</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$H$33</c:f>
+              <c:f>Sheet1!$B$33:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15662650602409633</c:v>
+                  <c:v>0.15942028985507251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16923076923076918</c:v>
+                  <c:v>0.17030567685589515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16849015317286653</c:v>
+                  <c:v>0.16564417177914115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17083333333333328</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1793814432989691</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.15830115830115832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,23 +2230,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F667B4A-AB9B-4293-BE5B-E6516B3E686C}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.47265625" style="3" customWidth="1"/>
-    <col min="2" max="10" width="8.83984375" style="1"/>
-    <col min="11" max="11" width="11.9453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2316,15 +2254,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,24 +2270,24 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>417.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
         <f>1-B5/B4</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+        <v>0.28904847396768407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2357,40 +2295,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5">
         <f>1-B11/B10</f>
-        <v>0.23877068557919623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+        <v>0.23933649289099523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -2398,58 +2336,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C16" s="4">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C17" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5">
         <f>1-B17/B16</f>
-        <v>0.15384615384615385</v>
+        <v>0.15830115830115832</v>
       </c>
       <c r="C18" s="5">
         <f>1-C17/C16</f>
-        <v>0.15662650602409633</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+        <v>0.15942028985507251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2457,253 +2395,225 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C23" s="7">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D23" s="8">
-        <v>486</v>
-      </c>
-      <c r="E23" s="9">
-        <v>415</v>
-      </c>
-      <c r="F23" s="7">
-        <v>485</v>
-      </c>
-      <c r="G23" s="9">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
+        <v>414</v>
+      </c>
+      <c r="E23" s="7">
+        <v>489</v>
+      </c>
+      <c r="F23" s="8">
+        <v>458</v>
+      </c>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="4">
         <v>380</v>
       </c>
-      <c r="C24" s="10">
-        <v>398</v>
-      </c>
-      <c r="D24" s="11">
-        <v>405</v>
+      <c r="C24" s="9">
+        <v>406</v>
+      </c>
+      <c r="D24" s="10">
+        <v>348</v>
       </c>
       <c r="E24" s="12">
-        <v>350</v>
-      </c>
-      <c r="F24" s="14">
-        <v>398</v>
-      </c>
-      <c r="G24" s="15">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+        <v>406</v>
+      </c>
+      <c r="F24" s="13">
+        <v>380</v>
+      </c>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="5">
         <f>1-B24/B23</f>
-        <v>0.16849015317286653</v>
+        <v>0.17030567685589515</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:G25" si="0">1-C24/C23</f>
-        <v>0.17083333333333328</v>
+        <f t="shared" ref="C25:F25" si="0">1-C24/C23</f>
+        <v>0.1697341513292433</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="E25" s="6">
+        <v>0.15942028985507251</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>0.15662650602409633</v>
+        <v>0.1697341513292433</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>0.1793814432989691</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16923076923076918</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+        <v>0.17030567685589515</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C31" s="1">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D31" s="1">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="E31" s="1">
-        <v>480</v>
-      </c>
-      <c r="F31" s="1">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="G31" s="1">
-        <v>486</v>
-      </c>
-      <c r="H31" s="1">
-        <v>520</v>
-      </c>
-      <c r="J31" s="1">
-        <f>SUM(B31:H31)/7</f>
-        <v>471.14285714285717</v>
-      </c>
-      <c r="K31" s="2" t="s">
+        <f>SUM(B31:E31)/4</f>
+        <v>469.75</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="1">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C32" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D32" s="1">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="E32" s="1">
-        <v>398</v>
-      </c>
-      <c r="F32" s="1">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="G32" s="1">
-        <v>405</v>
-      </c>
-      <c r="H32" s="1">
-        <v>440</v>
-      </c>
-      <c r="J32" s="1">
-        <f>SUM(B33:H33)/7</f>
-        <v>0.16643928936755067</v>
-      </c>
-      <c r="K32" s="2" t="s">
+        <f>SUM(B33:E33)/4</f>
+        <v>0.16341782419781678</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="1">
         <f>1-B32/B31</f>
-        <v>0.15662650602409633</v>
+        <v>0.15942028985507251</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="C33:H33" si="1">1-C32/C31</f>
-        <v>0.16923076923076918</v>
+        <f t="shared" ref="C33:E33" si="1">1-C32/C31</f>
+        <v>0.17030567685589515</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>0.16849015317286653</v>
+        <v>0.16564417177914115</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>0.17083333333333328</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1793814432989691</v>
+        <v>0.15830115830115832</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="J33" s="1">
-        <f>_xlfn.STDEV.S(B33:H33)</f>
-        <v>8.6961184116292525E-3</v>
-      </c>
-      <c r="K33" s="2" t="s">
+        <f>_xlfn.STDEV.S(B33:E33)</f>
+        <v>5.6142582921140391E-3</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="1">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1">
         <f>1-B37/B36</f>
-        <v>0.23877068557919623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
+        <v>0.23933649289099523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2711,24 +2621,24 @@
         <v>557</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4">
-        <v>417.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="1">
         <f>1-B42/B41</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
+        <v>0.28904847396768407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
@@ -2740,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2770,7 +2680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
@@ -2800,12 +2710,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +2742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -2859,7 +2769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
